--- a/data/factor_loadings.xlsx
+++ b/data/factor_loadings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>factor_1</t>
   </si>
@@ -29,6 +29,189 @@
   </si>
   <si>
     <t>factor_14</t>
+  </si>
+  <si>
+    <t>총자본증가율(IFRS)</t>
+  </si>
+  <si>
+    <t>유형자산증가율(IFRS)</t>
+  </si>
+  <si>
+    <t>비유동자산증가율(IFRS)</t>
+  </si>
+  <si>
+    <t>유동자산증가율(IFRS)</t>
+  </si>
+  <si>
+    <t>매출액증가율(IFRS)</t>
+  </si>
+  <si>
+    <t>종업원1인당 부가가치증가율(IFRS)</t>
+  </si>
+  <si>
+    <t>종업원수증가율(IFRS)</t>
+  </si>
+  <si>
+    <t>매출액정상영업이익률(IFRS)</t>
+  </si>
+  <si>
+    <t>매출액순이익률(IFRS)</t>
+  </si>
+  <si>
+    <t>총자본사업이익률(IFRS)</t>
+  </si>
+  <si>
+    <t>총자본순이익률(IFRS)</t>
+  </si>
+  <si>
+    <t>자기자본정상영업이익률(IFRS)</t>
+  </si>
+  <si>
+    <t>자기자본순이익률(IFRS)</t>
+  </si>
+  <si>
+    <t>경영자본정상영업이익률(IFRS)</t>
+  </si>
+  <si>
+    <t>경영자본순이익률(IFRS)</t>
+  </si>
+  <si>
+    <t>자본금정상영업이익률(IFRS)</t>
+  </si>
+  <si>
+    <t>자본금순이익률(IFRS)</t>
+  </si>
+  <si>
+    <t>기타손익비률(IFRS)</t>
+  </si>
+  <si>
+    <t>금융손익비율(IFRS)</t>
+  </si>
+  <si>
+    <t>금융비용부담률(IFRS)</t>
+  </si>
+  <si>
+    <t>수지비율(관계기업투자손익 제외)(IFRS)</t>
+  </si>
+  <si>
+    <t>금융비용 대 총비용비율(IFRS)</t>
+  </si>
+  <si>
+    <t>감가상각비 대 총비용비율(IFRS)</t>
+  </si>
+  <si>
+    <t>지급이자율(IFRS)</t>
+  </si>
+  <si>
+    <t>차입금평균이자율(IFRS)</t>
+  </si>
+  <si>
+    <t>유보율(IFRS)</t>
+  </si>
+  <si>
+    <t>사내유보 대 자기자본비율(IFRS)</t>
+  </si>
+  <si>
+    <t>적립금비율(재정비율)(IFRS)</t>
+  </si>
+  <si>
+    <t>평균배당률(IFRS)</t>
+  </si>
+  <si>
+    <t>자기자본배당률(IFRS)</t>
+  </si>
+  <si>
+    <t>유동자산구성비율(IFRS)</t>
+  </si>
+  <si>
+    <t>유동자산 대 비유동자산비율(IFRS)</t>
+  </si>
+  <si>
+    <t>자기자본구성비율(IFRS)</t>
+  </si>
+  <si>
+    <t>비유동비율(IFRS)</t>
+  </si>
+  <si>
+    <t>비유동장기적합률(IFRS)</t>
+  </si>
+  <si>
+    <t>유동비율(IFRS)</t>
+  </si>
+  <si>
+    <t>현금비율(IFRS)</t>
+  </si>
+  <si>
+    <t>매출채권비율(IFRS)</t>
+  </si>
+  <si>
+    <t>재고자산 대 순운전자본비율(IFRS)</t>
+  </si>
+  <si>
+    <t>매입채무 대 재고자산비율(IFRS)</t>
+  </si>
+  <si>
+    <t>유동부채비율(IFRS)</t>
+  </si>
+  <si>
+    <t>비유동부채 대 순운전자본비율(IFRS)</t>
+  </si>
+  <si>
+    <t>순운전자본비율(IFRS)</t>
+  </si>
+  <si>
+    <t>차입금의존도(IFRS)</t>
+  </si>
+  <si>
+    <t>투자집중도(IFRS)</t>
+  </si>
+  <si>
+    <t>CASH FLOW 대 부채비율(IFRS)</t>
+  </si>
+  <si>
+    <t>CASH FLOW 대 차입금비율(IFRS)</t>
+  </si>
+  <si>
+    <t>CASH FLOW 대 총자본비율(IFRS)</t>
+  </si>
+  <si>
+    <t>CASH FLOW 대 매출액비율(IFRS)</t>
+  </si>
+  <si>
+    <t>총자본회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>자기자본회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>자본금회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>타인자본회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>유동자산회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>당좌자산회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>비유동자산회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>유형자산회전율(IFRS)</t>
+  </si>
+  <si>
+    <t>순운전자본회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>운전자본회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>총자본투자효율(IFRS)</t>
+  </si>
+  <si>
+    <t>부가가치율(IFRS)</t>
   </si>
 </sst>
 </file>
@@ -386,1063 +569,1246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>0.01143107443396187</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.01894865881187662</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.06631892309912221</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.07652246871905787</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.08012668615706586</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>0.005161756795406245</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>-0.03152766719864147</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.02005193155118464</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.009180224614567828</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.01952130845938197</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>0.009823278974712614</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.004358868396787675</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.04923808124164451</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.1160667615804733</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.04496137648261091</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>0.01922021624038071</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>-0.0802960465551025</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-0.02306822560105151</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.009033463670401705</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.004596034305631541</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>0.004232303551912825</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.004248299809054768</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.02899192033341618</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.006989442695891169</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.03970173321687076</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>-0.006262371477250042</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>-0.008198898037149982</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.008989432922740294</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.1145036917646289</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.006302149140296581</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
         <v>0.003601749720179703</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.02187489635900494</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.05544885831787191</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.008426870835781001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.01467734793223201</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>0.01734968456257514</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>-0.07448327794044476</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.02561600227754066</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.08590745043054891</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.06661684785251253</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>0.04472927753944169</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-0.02062127529062023</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.9591107957652455</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.008834693496281222</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.03972860386090096</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
         <v>0.04469873713191379</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.1116678047344279</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.0004965667363642997</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.06719300275504175</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.8449897412918731</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>0.1141061521363278</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.001915948114978962</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.760900606131907</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2603696164749812</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.3845587429623123</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
         <v>0.3104660263285774</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.04264117247173396</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.01726579984279806</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.01573822686353441</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.7400781489821061</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
         <v>0.5794730701637508</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>-0.01338994229862134</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.4600095364962621</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.09863977503420344</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.4404443213680559</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
         <v>0.01856962304232472</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.03009566722487201</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.001143382889944904</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.008755391750531989</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.006488887708529049</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
         <v>0.03707720336181254</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.02795080437224516</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.2125208465135751</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.3415689626169037</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.02989886661637653</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
         <v>0.0180540897440992</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.002590430996495227</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.004197706267086183</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.0123701457661118</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.2891283944875646</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
         <v>0.03619287289816959</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>-0.03004498968515375</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.26298364363566</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.1050957644076405</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.06920219994727843</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
         <v>0.02538169442199157</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.04738233321621412</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.1000584489370729</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.9049870040346615</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.02434474325385119</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
         <v>0.03553516516768677</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>0.03805137818230261</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.2157889240825209</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.1767093520999087</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.003821063931084698</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
         <v>-0.01136136300745327</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>-0.03861445523416832</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.1510502830381614</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-0.01920380331795082</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.02227816939805699</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
         <v>-0.03639192335336008</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>0.02147610645554747</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-0.0566298731332504</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-0.8118548259308939</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-0.2213537513550984</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
         <v>-0.04631343439022511</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>-0.08185400371778247</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-0.2460616222780047</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.003326678574691789</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-0.03089378319861297</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
         <v>0.053229671203981</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>-0.05587438535718198</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.8586935518994202</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.02913430124389385</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.02126947825183987</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
         <v>0.009705857653287941</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>-0.01787587196945317</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-0.008011868801527362</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.1558277176036227</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.004101424915173038</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
         <v>0.006526690201818642</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>-0.006617935127872169</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.002254075728208873</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.03992569141452755</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.008882142062062942</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
         <v>0.05281472531062095</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>-0.04344321382515582</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.01084611828802547</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.01291715259977607</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-0.05928544660336699</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
         <v>0.9363000725383218</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>0.05855172858636218</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.05603594948729858</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.03025231660889355</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.1009754453303304</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
         <v>0.8069912012609426</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>-0.03445545661472538</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.2418928080045563</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.04376047228608596</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.1259252407976591</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
         <v>0.01825116237996304</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>-0.05642619322238735</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-0.012573567099577</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.03053298152988557</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.1974124653538143</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
         <v>0.01047324271240575</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>-0.02620898197460887</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-0.04417828640107264</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.06072381341623743</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.6210472770109197</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
         <v>-0.03917428918859734</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.04424129008462691</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.001140596439506646</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-0.01894523475838869</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.09547265302481607</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
         <v>-0.02174407397681467</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>-0.07468764069301642</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-0.002627726904741237</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-0.01914877347998815</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.1134409724493006</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
         <v>0.2756170573151367</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>-0.1572351159663819</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.05394589097073495</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.1072034214255066</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.08488070939941875</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
         <v>-0.8734032205600303</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>-0.04904466965437882</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.06771844863043296</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-0.02461843910225237</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.06801168682575219</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
         <v>-0.2755874955476949</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>0.06627740694589866</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-0.03357771348691014</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.01805387749313952</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-0.1175815625810818</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
         <v>0.03642496410001367</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>-0.1184788538625648</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.03633938829342219</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.0804078983052431</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-0.0352961522641294</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
         <v>0.01977876449022137</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>-0.07781308137048271</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-0.0007829439247362516</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.05712568226581316</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-0.02713692427541725</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
         <v>0.007258330710696086</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>-0.03888544734175581</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-0.0039703786561058</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.02184453802159746</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.02926693990384912</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
         <v>0.003904879422989952</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.04505855326815121</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>-0.002217905141420784</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.002690212753291395</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>-0.00209389444371422</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
         <v>0.01105122507799514</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>-0.007610992185694493</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.001344682303950369</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.01378250747129413</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>-0.03805647418243305</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
         <v>-0.9370020212002864</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>-0.004112525199883825</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.03486938241591978</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.01062661047796137</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>-0.1141321526500274</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
         <v>0.003266249629186303</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.007955308805528982</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>-0.002560321200601014</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>-0.01692272269873912</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>-0.01676197856573285</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
         <v>0.1236973450155033</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>-0.0681347018362717</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.05477443214707031</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.04973824548125882</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.1305953450705255</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
         <v>-0.2111045668104614</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>0.03677646041869941</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>-0.046970993493069</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>-0.1223799356491803</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>-0.1523448171345399</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
         <v>0.03882689305376748</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>-0.1763456121466735</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.409135565013693</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>-0.05289022135423686</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>-0.07292623427363736</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47">
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
         <v>0.02791781072404654</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>-0.02540795240970662</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.2675402420535906</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.09636059528942319</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0.1428913291707085</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48">
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
         <v>0.0007781410585894131</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>-0.004592921003138782</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.00352934948872842</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>-0.03010608871793699</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>0.0379807972660394</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49">
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
         <v>0.01551790650703917</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>0.210389413425628</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.2232273234099394</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>-0.01257225705361741</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>0.7009262081421167</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50">
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
         <v>0.04531927148132271</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>-0.04427147908193555</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.7091811117872343</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.02158330589728206</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>0.01074653830135218</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51">
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
         <v>-0.0765925807947577</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>0.7916427921076822</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>-0.0414952407576185</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>-0.0514021556377969</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.2060455551307334</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52">
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
         <v>-0.731433555718761</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>0.3957077699915358</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.01986024325824984</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>-0.008085227463618503</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>0.04555561108915162</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53">
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
         <v>0.0304053278787296</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>0.1933589132725051</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>-0.007010355888074438</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>-0.009149345362336317</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>0.01190060085184312</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54">
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
         <v>0.02947210082065972</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>0.4958770495013433</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>-0.05422713402415086</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>-0.03677866761797864</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>0.1813586311828467</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55">
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
         <v>-0.03194663854717709</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>0.62924984772603</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>-0.02294428336634827</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>-0.03398012051742985</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>0.04857444365587539</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56">
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
         <v>-0.02145338007360224</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>0.7152790847682977</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>-0.02090044659877685</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>-0.04087639398013466</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>0.01116025246171341</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57">
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
         <v>-0.05805618014342451</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>0.4918887050711419</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>-0.04328294750030382</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>-0.0474271064573732</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>0.242851142709424</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58">
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
         <v>0.006492241512963359</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>-0.05787851253372221</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>-0.01700754269204559</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>-0.04348297682486703</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>-0.01942583163183298</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59">
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
         <v>-0.005605296700441021</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>0.9126968755040873</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>-0.04527445739740549</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>-0.03833592443628451</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>0.1928422722352638</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60">
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
         <v>0.01720205511382101</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>-0.045012449980565</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>0.01539134891227037</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>0.08438395902384839</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>-0.01517961846739486</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61">
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
         <v>0.01117423256592465</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>0.3272097486262606</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>0.003017151294031871</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>0.2953936029623148</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>0.6348369394640409</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62">
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
         <v>0.05777371066296402</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>-0.161858822466457</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>0.04853016966545709</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>0.9073925444328401</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>0.08068203743485214</v>
       </c>
     </row>

--- a/data/factor_loadings.xlsx
+++ b/data/factor_loadings.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>factor_1</t>
   </si>
   <si>
-    <t>factor_2</t>
-  </si>
-  <si>
-    <t>factor_4</t>
+    <t>factor_7</t>
+  </si>
+  <si>
+    <t>factor_8</t>
+  </si>
+  <si>
+    <t>factor_9</t>
   </si>
   <si>
     <t>factor_10</t>
   </si>
   <si>
-    <t>factor_14</t>
+    <t>factor_22</t>
   </si>
   <si>
     <t>총자본증가율(IFRS)</t>
@@ -37,21 +40,48 @@
     <t>유형자산증가율(IFRS)</t>
   </si>
   <si>
+    <t>투자부동산증가율(IFRS)</t>
+  </si>
+  <si>
     <t>비유동자산증가율(IFRS)</t>
   </si>
   <si>
     <t>유동자산증가율(IFRS)</t>
   </si>
   <si>
+    <t>재고자산증가율(IFRS)</t>
+  </si>
+  <si>
+    <t>자기자본증가율(IFRS)</t>
+  </si>
+  <si>
     <t>매출액증가율(IFRS)</t>
   </si>
   <si>
+    <t>정상영업이익증가율(IFRS)</t>
+  </si>
+  <si>
+    <t>순이익증가율(IFRS)</t>
+  </si>
+  <si>
+    <t>총포괄이익증가율(IFRS)</t>
+  </si>
+  <si>
     <t>종업원1인당 부가가치증가율(IFRS)</t>
   </si>
   <si>
     <t>종업원수증가율(IFRS)</t>
   </si>
   <si>
+    <t>종업원1인당 매출액증가율(IFRS)</t>
+  </si>
+  <si>
+    <t>종업원1인당 인건비증가율(IFRS)</t>
+  </si>
+  <si>
+    <t>매출액총이익률(IFRS)</t>
+  </si>
+  <si>
     <t>매출액정상영업이익률(IFRS)</t>
   </si>
   <si>
@@ -82,6 +112,9 @@
     <t>자본금순이익률(IFRS)</t>
   </si>
   <si>
+    <t>매출원가 대 매출액비율(IFRS)</t>
+  </si>
+  <si>
     <t>기타손익비률(IFRS)</t>
   </si>
   <si>
@@ -91,15 +124,36 @@
     <t>금융비용부담률(IFRS)</t>
   </si>
   <si>
+    <t>외환이익 대 매출액비율(IFRS)</t>
+  </si>
+  <si>
+    <t>광고선전비 대 매출액비율(IFRS)</t>
+  </si>
+  <si>
+    <t>세금과공과 대 세금과공과 차감전순이익률(IFRS)</t>
+  </si>
+  <si>
     <t>수지비율(관계기업투자손익 제외)(IFRS)</t>
   </si>
   <si>
+    <t>인건비 대 총비용비율(IFRS)</t>
+  </si>
+  <si>
     <t>금융비용 대 총비용비율(IFRS)</t>
   </si>
   <si>
     <t>감가상각비 대 총비용비율(IFRS)</t>
   </si>
   <si>
+    <t>감가상각률(IFRS)</t>
+  </si>
+  <si>
+    <t>누적감가상각률(IFRS)</t>
+  </si>
+  <si>
+    <t>이자부담률(IFRS)</t>
+  </si>
+  <si>
     <t>지급이자율(IFRS)</t>
   </si>
   <si>
@@ -121,9 +175,15 @@
     <t>자기자본배당률(IFRS)</t>
   </si>
   <si>
+    <t>배당성향(IFRS)</t>
+  </si>
+  <si>
     <t>유동자산구성비율(IFRS)</t>
   </si>
   <si>
+    <t>재고자산 대 유동자산비율(IFRS)</t>
+  </si>
+  <si>
     <t>유동자산 대 비유동자산비율(IFRS)</t>
   </si>
   <si>
@@ -148,12 +208,21 @@
     <t>재고자산 대 순운전자본비율(IFRS)</t>
   </si>
   <si>
+    <t>매출채권 대 매입채무비율(IFRS)</t>
+  </si>
+  <si>
+    <t>매출채권 대 상,제품비율(IFRS)</t>
+  </si>
+  <si>
     <t>매입채무 대 재고자산비율(IFRS)</t>
   </si>
   <si>
     <t>유동부채비율(IFRS)</t>
   </si>
   <si>
+    <t>단기차입금 대 총차입금비율(IFRS)</t>
+  </si>
+  <si>
     <t>비유동부채 대 순운전자본비율(IFRS)</t>
   </si>
   <si>
@@ -163,6 +232,9 @@
     <t>차입금의존도(IFRS)</t>
   </si>
   <si>
+    <t>유동자산집중도(IFRS)</t>
+  </si>
+  <si>
     <t>투자집중도(IFRS)</t>
   </si>
   <si>
@@ -178,6 +250,9 @@
     <t>CASH FLOW 대 매출액비율(IFRS)</t>
   </si>
   <si>
+    <t>정상영업이익대비이자보상배율(IFRS)</t>
+  </si>
+  <si>
     <t>총자본회전률(IFRS)</t>
   </si>
   <si>
@@ -190,12 +265,39 @@
     <t>타인자본회전률(IFRS)</t>
   </si>
   <si>
+    <t>매입채무회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>매입채무회전기간(IFRS)</t>
+  </si>
+  <si>
     <t>유동자산회전률(IFRS)</t>
   </si>
   <si>
     <t>당좌자산회전률(IFRS)</t>
   </si>
   <si>
+    <t>재고자산회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>재고자산회전기간(IFRS)</t>
+  </si>
+  <si>
+    <t>상품,제품회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>원,부재료회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>재공품회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>매출채권회전률(IFRS)</t>
+  </si>
+  <si>
+    <t>매출채권회전기간(IFRS)</t>
+  </si>
+  <si>
     <t>비유동자산회전률(IFRS)</t>
   </si>
   <si>
@@ -208,10 +310,22 @@
     <t>운전자본회전률(IFRS)</t>
   </si>
   <si>
+    <t>1회전기간(IFRS)</t>
+  </si>
+  <si>
     <t>총자본투자효율(IFRS)</t>
   </si>
   <si>
-    <t>부가가치율(IFRS)</t>
+    <t>설비투자효율(IFRS)</t>
+  </si>
+  <si>
+    <t>기계투자효율(IFRS)</t>
+  </si>
+  <si>
+    <t>노동소득분배율(IFRS)</t>
+  </si>
+  <si>
+    <t>이윤분배율(IFRS)</t>
   </si>
 </sst>
 </file>
@@ -569,13 +683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,1225 +705,2262 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01143107443396187</v>
+        <v>0.1171065512863162</v>
       </c>
       <c r="C2">
-        <v>0.01894865881187662</v>
+        <v>-0.03134957661616895</v>
       </c>
       <c r="D2">
-        <v>-0.06631892309912221</v>
+        <v>0.008521122497852703</v>
       </c>
       <c r="E2">
-        <v>0.07652246871905787</v>
+        <v>0.8849034974567221</v>
       </c>
       <c r="F2">
-        <v>0.08012668615706586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.07236260024121585</v>
+      </c>
+      <c r="G2">
+        <v>0.03373301973953784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.005161756795406245</v>
+        <v>0.001268437656491951</v>
       </c>
       <c r="C3">
-        <v>-0.03152766719864147</v>
+        <v>-0.02507797721691046</v>
       </c>
       <c r="D3">
-        <v>0.02005193155118464</v>
+        <v>-0.006236885183582647</v>
       </c>
       <c r="E3">
-        <v>-0.009180224614567828</v>
+        <v>0.07242092581829583</v>
       </c>
       <c r="F3">
-        <v>-0.01952130845938197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.02294619020734333</v>
+      </c>
+      <c r="G3">
+        <v>-0.03566104199633671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.009823278974712614</v>
+        <v>0.01275163166256933</v>
       </c>
       <c r="C4">
-        <v>0.004358868396787675</v>
+        <v>-0.001513544794876031</v>
       </c>
       <c r="D4">
-        <v>-0.04923808124164451</v>
+        <v>-0.006410979331817865</v>
       </c>
       <c r="E4">
-        <v>0.1160667615804733</v>
+        <v>0.02272882263229587</v>
       </c>
       <c r="F4">
-        <v>0.04496137648261091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.0167658948850583</v>
+      </c>
+      <c r="G4">
+        <v>0.0412649551831562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0.01922021624038071</v>
+        <v>0.05097038161548456</v>
       </c>
       <c r="C5">
-        <v>-0.0802960465551025</v>
+        <v>0.05872361475686155</v>
       </c>
       <c r="D5">
-        <v>-0.02306822560105151</v>
+        <v>0.01156154202604854</v>
       </c>
       <c r="E5">
-        <v>0.009033463670401705</v>
+        <v>0.8363906108885877</v>
       </c>
       <c r="F5">
-        <v>0.004596034305631541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.08496766633070681</v>
+      </c>
+      <c r="G5">
+        <v>0.08945178643591506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.004232303551912825</v>
+        <v>0.0223729844331323</v>
       </c>
       <c r="C6">
-        <v>0.004248299809054768</v>
+        <v>-0.06753885921682534</v>
       </c>
       <c r="D6">
-        <v>-0.02899192033341618</v>
+        <v>0.01727679185413862</v>
       </c>
       <c r="E6">
-        <v>0.006989442695891169</v>
+        <v>0.2522630586664378</v>
       </c>
       <c r="F6">
-        <v>0.03970173321687076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.07296265842940612</v>
+      </c>
+      <c r="G6">
+        <v>-0.03806370482475772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.006262371477250042</v>
+        <v>0.02989366543775638</v>
       </c>
       <c r="C7">
-        <v>-0.008198898037149982</v>
+        <v>-0.02861378926837124</v>
       </c>
       <c r="D7">
-        <v>-0.008989432922740294</v>
+        <v>0.01834297309987535</v>
       </c>
       <c r="E7">
-        <v>0.1145036917646289</v>
+        <v>0.0523892486632104</v>
       </c>
       <c r="F7">
-        <v>0.006302149140296581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02123189900064961</v>
+      </c>
+      <c r="G7">
+        <v>0.05005206027147188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003601749720179703</v>
+        <v>0.003348457084859686</v>
       </c>
       <c r="C8">
-        <v>0.02187489635900494</v>
+        <v>0.03961359858227725</v>
       </c>
       <c r="D8">
-        <v>-0.05544885831787191</v>
+        <v>0.02225354387432823</v>
       </c>
       <c r="E8">
-        <v>0.008426870835781001</v>
+        <v>0.4107192220112209</v>
       </c>
       <c r="F8">
-        <v>0.01467734793223201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.005360927065823565</v>
+      </c>
+      <c r="G8">
+        <v>-0.1012933208648471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01734968456257514</v>
+        <v>0.05528889685374389</v>
       </c>
       <c r="C9">
-        <v>-0.07448327794044476</v>
+        <v>-0.01498913646577116</v>
       </c>
       <c r="D9">
-        <v>0.02561600227754066</v>
+        <v>-0.0002854793319616675</v>
       </c>
       <c r="E9">
-        <v>0.08590745043054891</v>
+        <v>0.04255214426126175</v>
       </c>
       <c r="F9">
-        <v>0.06661684785251253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.007877498578634751</v>
+      </c>
+      <c r="G9">
+        <v>0.06037292898197904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.04472927753944169</v>
+        <v>0.04645985292560776</v>
       </c>
       <c r="C10">
-        <v>-0.02062127529062023</v>
+        <v>-0.03186686438220983</v>
       </c>
       <c r="D10">
-        <v>0.9591107957652455</v>
+        <v>0.0004022957789695055</v>
       </c>
       <c r="E10">
-        <v>0.008834693496281222</v>
+        <v>0.01714559047507093</v>
       </c>
       <c r="F10">
-        <v>-0.03972860386090096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.1318191220436644</v>
+      </c>
+      <c r="G10">
+        <v>-0.1102922700366918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04469873713191379</v>
+        <v>0.03788923200172781</v>
       </c>
       <c r="C11">
-        <v>0.1116678047344279</v>
+        <v>0.06270118713397571</v>
       </c>
       <c r="D11">
-        <v>-0.0004965667363642997</v>
+        <v>0.006170662770284314</v>
       </c>
       <c r="E11">
-        <v>0.06719300275504175</v>
+        <v>0.05450214113041088</v>
       </c>
       <c r="F11">
-        <v>0.8449897412918731</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03247039442440412</v>
+      </c>
+      <c r="G11">
+        <v>-0.09130143167474702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.1141061521363278</v>
+        <v>0.07618672016687264</v>
       </c>
       <c r="C12">
-        <v>0.001915948114978962</v>
+        <v>0.03743779951636137</v>
       </c>
       <c r="D12">
-        <v>0.760900606131907</v>
+        <v>0.01432370890666178</v>
       </c>
       <c r="E12">
-        <v>0.2603696164749812</v>
+        <v>-0.05340275270919358</v>
       </c>
       <c r="F12">
-        <v>0.3845587429623123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.1070068986091881</v>
+      </c>
+      <c r="G12">
+        <v>-0.1313136837318565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.3104660263285774</v>
+        <v>0.02600552997133485</v>
       </c>
       <c r="C13">
-        <v>0.04264117247173396</v>
+        <v>0.009029753656804397</v>
       </c>
       <c r="D13">
-        <v>0.01726579984279806</v>
+        <v>-0.003119225746953485</v>
       </c>
       <c r="E13">
-        <v>-0.01573822686353441</v>
+        <v>-0.009709657472952004</v>
       </c>
       <c r="F13">
-        <v>0.7400781489821061</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0447157032450845</v>
+      </c>
+      <c r="G13">
+        <v>-0.003173278495655119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.5794730701637508</v>
+        <v>0.01391474712126518</v>
       </c>
       <c r="C14">
-        <v>-0.01338994229862134</v>
+        <v>-0.1379834595416497</v>
       </c>
       <c r="D14">
-        <v>0.4600095364962621</v>
+        <v>0.006347853206009522</v>
       </c>
       <c r="E14">
-        <v>0.09863977503420344</v>
+        <v>0.2923217502368647</v>
       </c>
       <c r="F14">
-        <v>0.4404443213680559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.06551644056076454</v>
+      </c>
+      <c r="G14">
+        <v>0.012731047529562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.01856962304232472</v>
+        <v>0.01431821031890788</v>
       </c>
       <c r="C15">
-        <v>0.03009566722487201</v>
+        <v>0.006315085594581884</v>
       </c>
       <c r="D15">
-        <v>-0.001143382889944904</v>
+        <v>-0.001730540964165493</v>
       </c>
       <c r="E15">
-        <v>0.008755391750531989</v>
+        <v>-0.02568945977972698</v>
       </c>
       <c r="F15">
-        <v>0.006488887708529049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.01631340868729354</v>
+      </c>
+      <c r="G15">
+        <v>0.06856634755645555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03707720336181254</v>
+        <v>-0.03108324971428039</v>
       </c>
       <c r="C16">
-        <v>0.02795080437224516</v>
+        <v>0.01937781451963738</v>
       </c>
       <c r="D16">
-        <v>0.2125208465135751</v>
+        <v>-0.00431880807795266</v>
       </c>
       <c r="E16">
-        <v>0.3415689626169037</v>
+        <v>-0.03213265597863185</v>
       </c>
       <c r="F16">
-        <v>0.02989886661637653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03242905920417768</v>
+      </c>
+      <c r="G16">
+        <v>0.009291299527818217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0.0180540897440992</v>
+        <v>0.4252436039882688</v>
       </c>
       <c r="C17">
-        <v>0.002590430996495227</v>
+        <v>-0.03143230155215566</v>
       </c>
       <c r="D17">
-        <v>-0.004197706267086183</v>
+        <v>0.02417413972417875</v>
       </c>
       <c r="E17">
-        <v>0.0123701457661118</v>
+        <v>-0.03414948268995537</v>
       </c>
       <c r="F17">
-        <v>0.2891283944875646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>-0.00394789346432534</v>
+      </c>
+      <c r="G17">
+        <v>0.2665311942999847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03619287289816959</v>
+        <v>0.2309469539249785</v>
       </c>
       <c r="C18">
-        <v>-0.03004498968515375</v>
+        <v>0.1048462868254279</v>
       </c>
       <c r="D18">
-        <v>0.26298364363566</v>
+        <v>0.02952011995614716</v>
       </c>
       <c r="E18">
-        <v>0.1050957644076405</v>
+        <v>0.008114401432646549</v>
       </c>
       <c r="F18">
-        <v>0.06920219994727843</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.03766660497830871</v>
+      </c>
+      <c r="G18">
+        <v>-0.01074518764248682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02538169442199157</v>
+        <v>0.01019686677216661</v>
       </c>
       <c r="C19">
-        <v>0.04738233321621412</v>
+        <v>0.865898066854452</v>
       </c>
       <c r="D19">
-        <v>0.1000584489370729</v>
+        <v>0.03831515182705011</v>
       </c>
       <c r="E19">
-        <v>0.9049870040346615</v>
+        <v>0.08007667663337452</v>
       </c>
       <c r="F19">
-        <v>-0.02434474325385119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.05013102307859493</v>
+      </c>
+      <c r="G19">
+        <v>0.07126179614042095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.03553516516768677</v>
+        <v>0.8676794194983669</v>
       </c>
       <c r="C20">
-        <v>0.03805137818230261</v>
+        <v>-0.02385849227269618</v>
       </c>
       <c r="D20">
-        <v>0.2157889240825209</v>
+        <v>0.08223255466058593</v>
       </c>
       <c r="E20">
-        <v>0.1767093520999087</v>
+        <v>0.1135738368179053</v>
       </c>
       <c r="F20">
-        <v>-0.003821063931084698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.024445879806508</v>
+      </c>
+      <c r="G20">
+        <v>-0.0767780469568923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01136136300745327</v>
+        <v>0.5937426308606647</v>
       </c>
       <c r="C21">
-        <v>-0.03861445523416832</v>
+        <v>0.5284818312228869</v>
       </c>
       <c r="D21">
-        <v>-0.1510502830381614</v>
+        <v>0.1618496923330135</v>
       </c>
       <c r="E21">
-        <v>-0.01920380331795082</v>
+        <v>0.1489525564029478</v>
       </c>
       <c r="F21">
-        <v>0.02227816939805699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.2590415463757391</v>
+      </c>
+      <c r="G21">
+        <v>-0.04825234705917024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.03639192335336008</v>
+        <v>0.7586380643999526</v>
       </c>
       <c r="C22">
-        <v>0.02147610645554747</v>
+        <v>-0.01979355440968712</v>
       </c>
       <c r="D22">
-        <v>-0.0566298731332504</v>
+        <v>0.2812925784875522</v>
       </c>
       <c r="E22">
-        <v>-0.8118548259308939</v>
+        <v>0.081909648999723</v>
       </c>
       <c r="F22">
-        <v>-0.2213537513550984</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.02817767499638178</v>
+      </c>
+      <c r="G22">
+        <v>-0.2194367787989039</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04631343439022511</v>
+        <v>0.5097318888452663</v>
       </c>
       <c r="C23">
-        <v>-0.08185400371778247</v>
+        <v>0.3143648688380736</v>
       </c>
       <c r="D23">
-        <v>-0.2460616222780047</v>
+        <v>0.6092779752568306</v>
       </c>
       <c r="E23">
-        <v>0.003326678574691789</v>
+        <v>0.1042621973437116</v>
       </c>
       <c r="F23">
-        <v>-0.03089378319861297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.0819875490109075</v>
+      </c>
+      <c r="G23">
+        <v>-0.1601118710011152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.053229671203981</v>
+        <v>0.01601041348918095</v>
       </c>
       <c r="C24">
-        <v>-0.05587438535718198</v>
+        <v>-0.0004842346995376575</v>
       </c>
       <c r="D24">
-        <v>0.8586935518994202</v>
+        <v>0.009430765239782752</v>
       </c>
       <c r="E24">
-        <v>0.02913430124389385</v>
+        <v>0.005364134728680358</v>
       </c>
       <c r="F24">
-        <v>-0.02126947825183987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.0352234191101074</v>
+      </c>
+      <c r="G24">
+        <v>0.03500435947449322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.009705857653287941</v>
+        <v>0.06525982390621242</v>
       </c>
       <c r="C25">
-        <v>-0.01787587196945317</v>
+        <v>0.1195037701029959</v>
       </c>
       <c r="D25">
-        <v>-0.008011868801527362</v>
+        <v>0.03771246418971765</v>
       </c>
       <c r="E25">
-        <v>0.1558277176036227</v>
+        <v>0.05446458662867723</v>
       </c>
       <c r="F25">
-        <v>-0.004101424915173038</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.4321745771241097</v>
+      </c>
+      <c r="G25">
+        <v>-0.0226257608931415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.006526690201818642</v>
+        <v>0.2262379662401853</v>
       </c>
       <c r="C26">
-        <v>-0.006617935127872169</v>
+        <v>-0.01947552289024913</v>
       </c>
       <c r="D26">
-        <v>0.002254075728208873</v>
+        <v>0.01955149730158341</v>
       </c>
       <c r="E26">
-        <v>-0.03992569141452755</v>
+        <v>0.00419295491775908</v>
       </c>
       <c r="F26">
-        <v>0.008882142062062942</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.006117409243066542</v>
+      </c>
+      <c r="G26">
+        <v>-0.04823575640025205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>0.05281472531062095</v>
+        <v>0.1299826256299786</v>
       </c>
       <c r="C27">
-        <v>-0.04344321382515582</v>
+        <v>0.2625365184705342</v>
       </c>
       <c r="D27">
-        <v>0.01084611828802547</v>
+        <v>0.03914817821261636</v>
       </c>
       <c r="E27">
-        <v>0.01291715259977607</v>
+        <v>0.2890249409446045</v>
       </c>
       <c r="F27">
-        <v>-0.05928544660336699</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.0774249523016852</v>
+      </c>
+      <c r="G27">
+        <v>-0.04233912913650827</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.9363000725383218</v>
+        <v>-0.2999791587878925</v>
       </c>
       <c r="C28">
-        <v>0.05855172858636218</v>
+        <v>-0.04523540094443685</v>
       </c>
       <c r="D28">
-        <v>0.05603594948729858</v>
+        <v>-0.0585025817116281</v>
       </c>
       <c r="E28">
-        <v>0.03025231660889355</v>
+        <v>0.0002536487842007172</v>
       </c>
       <c r="F28">
-        <v>0.1009754453303304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.003391293662470027</v>
+      </c>
+      <c r="G28">
+        <v>-0.3325322552418754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.8069912012609426</v>
+        <v>0.004469765894127209</v>
       </c>
       <c r="C29">
-        <v>-0.03445545661472538</v>
+        <v>0.03443834446629943</v>
       </c>
       <c r="D29">
-        <v>0.2418928080045563</v>
+        <v>0.0231511526552096</v>
       </c>
       <c r="E29">
-        <v>0.04376047228608596</v>
+        <v>0.06299150370538091</v>
       </c>
       <c r="F29">
-        <v>0.1259252407976591</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.9128470230607192</v>
+      </c>
+      <c r="G29">
+        <v>-0.01148654375630062</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01825116237996304</v>
+        <v>0.04582547597031049</v>
       </c>
       <c r="C30">
-        <v>-0.05642619322238735</v>
+        <v>0.1517187168196369</v>
       </c>
       <c r="D30">
-        <v>-0.012573567099577</v>
+        <v>0.02497426770461278</v>
       </c>
       <c r="E30">
-        <v>0.03053298152988557</v>
+        <v>0.04448000417694032</v>
       </c>
       <c r="F30">
-        <v>0.1974124653538143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.2461953196502381</v>
+      </c>
+      <c r="G30">
+        <v>0.05825248715349198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01047324271240575</v>
+        <v>0.003769708161992502</v>
       </c>
       <c r="C31">
-        <v>-0.02620898197460887</v>
+        <v>-0.1734923697245162</v>
       </c>
       <c r="D31">
-        <v>-0.04417828640107264</v>
+        <v>-0.03290791577669099</v>
       </c>
       <c r="E31">
-        <v>0.06072381341623743</v>
+        <v>0.01630748054948931</v>
       </c>
       <c r="F31">
-        <v>0.6210472770109197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.07507220337157512</v>
+      </c>
+      <c r="G31">
+        <v>-0.06914661086019248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.03917428918859734</v>
+        <v>0.02601344610305638</v>
       </c>
       <c r="C32">
-        <v>0.04424129008462691</v>
+        <v>-0.1409056901828889</v>
       </c>
       <c r="D32">
-        <v>0.001140596439506646</v>
+        <v>-0.007241877574095061</v>
       </c>
       <c r="E32">
-        <v>-0.01894523475838869</v>
+        <v>0.01858826911742595</v>
       </c>
       <c r="F32">
-        <v>0.09547265302481607</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.002239570830884446</v>
+      </c>
+      <c r="G32">
+        <v>-0.006993648729792975</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02174407397681467</v>
+        <v>0.04381324239086518</v>
       </c>
       <c r="C33">
-        <v>-0.07468764069301642</v>
+        <v>0.01776746420618829</v>
       </c>
       <c r="D33">
-        <v>-0.002627726904741237</v>
+        <v>0.02534262126008979</v>
       </c>
       <c r="E33">
-        <v>-0.01914877347998815</v>
+        <v>-0.05720995049251711</v>
       </c>
       <c r="F33">
-        <v>0.1134409724493006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.06728403207846013</v>
+      </c>
+      <c r="G33">
+        <v>0.4846535889490835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.2756170573151367</v>
+        <v>-0.005039355916090621</v>
       </c>
       <c r="C34">
-        <v>-0.1572351159663819</v>
+        <v>0.01526198371318227</v>
       </c>
       <c r="D34">
-        <v>0.05394589097073495</v>
+        <v>0.01491455009325242</v>
       </c>
       <c r="E34">
-        <v>0.1072034214255066</v>
+        <v>-0.02553478763867286</v>
       </c>
       <c r="F34">
-        <v>0.08488070939941875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.06167047326741196</v>
+      </c>
+      <c r="G34">
+        <v>0.01885176792019028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.8734032205600303</v>
+        <v>-0.1862023637078299</v>
       </c>
       <c r="C35">
-        <v>-0.04904466965437882</v>
+        <v>0.0008023368087342677</v>
       </c>
       <c r="D35">
-        <v>0.06771844863043296</v>
+        <v>-0.03712885629624405</v>
       </c>
       <c r="E35">
-        <v>-0.02461843910225237</v>
+        <v>-0.02744977961519003</v>
       </c>
       <c r="F35">
-        <v>0.06801168682575219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.8722852607310345</v>
+      </c>
+      <c r="G35">
+        <v>0.02981167953878621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.2755874955476949</v>
+        <v>0.0633343595343777</v>
       </c>
       <c r="C36">
-        <v>0.06627740694589866</v>
+        <v>0.1540260344495417</v>
       </c>
       <c r="D36">
-        <v>-0.03357771348691014</v>
+        <v>0.03386202632753341</v>
       </c>
       <c r="E36">
-        <v>0.01805387749313952</v>
+        <v>0.06983645512294695</v>
       </c>
       <c r="F36">
-        <v>-0.1175815625810818</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.1719075740924248</v>
+      </c>
+      <c r="G36">
+        <v>0.2328030744082634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.03642496410001367</v>
+        <v>-0.0299871393842755</v>
       </c>
       <c r="C37">
-        <v>-0.1184788538625648</v>
+        <v>-0.08786709792844374</v>
       </c>
       <c r="D37">
-        <v>0.03633938829342219</v>
+        <v>-0.03628499274762927</v>
       </c>
       <c r="E37">
-        <v>0.0804078983052431</v>
+        <v>-0.02288614457168725</v>
       </c>
       <c r="F37">
-        <v>-0.0352961522641294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>-0.05148362997329333</v>
+      </c>
+      <c r="G37">
+        <v>-0.06468316454992633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01977876449022137</v>
+        <v>-0.04685941759370292</v>
       </c>
       <c r="C38">
-        <v>-0.07781308137048271</v>
+        <v>0.32560678237406</v>
       </c>
       <c r="D38">
-        <v>-0.0007829439247362516</v>
+        <v>0.03410267186572391</v>
       </c>
       <c r="E38">
-        <v>0.05712568226581316</v>
+        <v>-0.1211820744721817</v>
       </c>
       <c r="F38">
-        <v>-0.02713692427541725</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.05522881174889761</v>
+      </c>
+      <c r="G38">
+        <v>0.0346802302387396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.007258330710696086</v>
+        <v>0.02041935347763789</v>
       </c>
       <c r="C39">
-        <v>-0.03888544734175581</v>
+        <v>0.02709713811680526</v>
       </c>
       <c r="D39">
-        <v>-0.0039703786561058</v>
+        <v>0.02764765728245863</v>
       </c>
       <c r="E39">
-        <v>0.02184453802159746</v>
+        <v>-0.07857675732242246</v>
       </c>
       <c r="F39">
-        <v>0.02926693990384912</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.02427151686123388</v>
+      </c>
+      <c r="G39">
+        <v>0.4375425190066895</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.003904879422989952</v>
+        <v>-0.09903897993460678</v>
       </c>
       <c r="C40">
-        <v>0.04505855326815121</v>
+        <v>-0.01726756913161788</v>
       </c>
       <c r="D40">
-        <v>-0.002217905141420784</v>
+        <v>0.01636716192308175</v>
       </c>
       <c r="E40">
-        <v>0.002690212753291395</v>
+        <v>-0.0608398957885731</v>
       </c>
       <c r="F40">
-        <v>-0.00209389444371422</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.01386139733717071</v>
+      </c>
+      <c r="G40">
+        <v>-0.1792787381926872</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01105122507799514</v>
+        <v>0.02201961118706375</v>
       </c>
       <c r="C41">
-        <v>-0.007610992185694493</v>
+        <v>0.03870954847760531</v>
       </c>
       <c r="D41">
-        <v>0.001344682303950369</v>
+        <v>-0.03315026020101321</v>
       </c>
       <c r="E41">
-        <v>0.01378250747129413</v>
+        <v>0.01038457525632879</v>
       </c>
       <c r="F41">
-        <v>-0.03805647418243305</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0212002725273546</v>
+      </c>
+      <c r="G41">
+        <v>0.01259562634596477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.9370020212002864</v>
+        <v>-0.005070686891660113</v>
       </c>
       <c r="C42">
-        <v>-0.004112525199883825</v>
+        <v>-0.006917459413541034</v>
       </c>
       <c r="D42">
-        <v>0.03486938241591978</v>
+        <v>0.007748884435043596</v>
       </c>
       <c r="E42">
-        <v>0.01062661047796137</v>
+        <v>0.006464856183057524</v>
       </c>
       <c r="F42">
-        <v>-0.1141321526500274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.03917245076267921</v>
+      </c>
+      <c r="G42">
+        <v>0.01362614229161311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.003266249629186303</v>
+        <v>0.00395177493947484</v>
       </c>
       <c r="C43">
-        <v>0.007955308805528982</v>
+        <v>0.009318730093805648</v>
       </c>
       <c r="D43">
-        <v>-0.002560321200601014</v>
+        <v>0.00821883130956491</v>
       </c>
       <c r="E43">
-        <v>-0.01692272269873912</v>
+        <v>0.02312522369953078</v>
       </c>
       <c r="F43">
-        <v>-0.01676197856573285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.001896401975616669</v>
+      </c>
+      <c r="G43">
+        <v>0.08041171039951658</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.1236973450155033</v>
+        <v>-0.0648102550055201</v>
       </c>
       <c r="C44">
-        <v>-0.0681347018362717</v>
+        <v>-0.01401832497843822</v>
       </c>
       <c r="D44">
-        <v>0.05477443214707031</v>
+        <v>0.0539966549039828</v>
       </c>
       <c r="E44">
-        <v>0.04973824548125882</v>
+        <v>0.01709457397588558</v>
       </c>
       <c r="F44">
-        <v>0.1305953450705255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01425713685853078</v>
+      </c>
+      <c r="G44">
+        <v>0.01377745922585887</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>-0.2111045668104614</v>
+        <v>0.1613789410632283</v>
       </c>
       <c r="C45">
-        <v>0.03677646041869941</v>
+        <v>0.03255338478875223</v>
       </c>
       <c r="D45">
-        <v>-0.046970993493069</v>
+        <v>0.8938897028286236</v>
       </c>
       <c r="E45">
-        <v>-0.1223799356491803</v>
+        <v>0.03263295108022272</v>
       </c>
       <c r="F45">
-        <v>-0.1523448171345399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.02211282842907558</v>
+      </c>
+      <c r="G45">
+        <v>0.001922628667757164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.03882689305376748</v>
+        <v>0.1396342701097535</v>
       </c>
       <c r="C46">
-        <v>-0.1763456121466735</v>
+        <v>0.1766014474540784</v>
       </c>
       <c r="D46">
-        <v>0.409135565013693</v>
+        <v>0.6449526116419673</v>
       </c>
       <c r="E46">
-        <v>-0.05289022135423686</v>
+        <v>-0.08174742016315256</v>
       </c>
       <c r="F46">
-        <v>-0.07292623427363736</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04811508429291566</v>
+      </c>
+      <c r="G46">
+        <v>0.1572575019668058</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02791781072404654</v>
+        <v>0.1630767083832876</v>
       </c>
       <c r="C47">
-        <v>-0.02540795240970662</v>
+        <v>-0.04646409791279591</v>
       </c>
       <c r="D47">
-        <v>0.2675402420535906</v>
+        <v>0.02046016163984944</v>
       </c>
       <c r="E47">
-        <v>0.09636059528942319</v>
+        <v>-0.02169463442303343</v>
       </c>
       <c r="F47">
-        <v>0.1428913291707085</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.002058417485458511</v>
+      </c>
+      <c r="G47">
+        <v>0.07482775386999475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.0007781410585894131</v>
+        <v>0.5688553573269645</v>
       </c>
       <c r="C48">
-        <v>-0.004592921003138782</v>
+        <v>-0.05949207576245978</v>
       </c>
       <c r="D48">
-        <v>0.00352934948872842</v>
+        <v>0.02037021045465957</v>
       </c>
       <c r="E48">
-        <v>-0.03010608871793699</v>
+        <v>-0.01694008759642281</v>
       </c>
       <c r="F48">
-        <v>0.0379807972660394</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01953650953619343</v>
+      </c>
+      <c r="G48">
+        <v>0.1402552772580065</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.01551790650703917</v>
+        <v>-0.01387918510079895</v>
       </c>
       <c r="C49">
-        <v>0.210389413425628</v>
+        <v>0.005179895434729004</v>
       </c>
       <c r="D49">
-        <v>0.2232273234099394</v>
+        <v>0.0337144370889566</v>
       </c>
       <c r="E49">
-        <v>-0.01257225705361741</v>
+        <v>-0.01450021398016331</v>
       </c>
       <c r="F49">
-        <v>0.7009262081421167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.01800874716903632</v>
+      </c>
+      <c r="G49">
+        <v>0.1589381428397333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.04531927148132271</v>
+        <v>0.06677928731266912</v>
       </c>
       <c r="C50">
-        <v>-0.04427147908193555</v>
+        <v>-0.006177238103673944</v>
       </c>
       <c r="D50">
-        <v>0.7091811117872343</v>
+        <v>-0.02598714597346092</v>
       </c>
       <c r="E50">
-        <v>0.02158330589728206</v>
+        <v>-0.008045181334005948</v>
       </c>
       <c r="F50">
-        <v>0.01074653830135218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02379999605433976</v>
+      </c>
+      <c r="G50">
+        <v>-0.07844291965006213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0765925807947577</v>
+        <v>-0.04497189485026069</v>
       </c>
       <c r="C51">
-        <v>0.7916427921076822</v>
+        <v>-0.02355159420599925</v>
       </c>
       <c r="D51">
-        <v>-0.0414952407576185</v>
+        <v>0.01465024578764731</v>
       </c>
       <c r="E51">
-        <v>-0.0514021556377969</v>
+        <v>-0.05677133270999256</v>
       </c>
       <c r="F51">
-        <v>0.2060455551307334</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.05316694047655494</v>
+      </c>
+      <c r="G51">
+        <v>-0.03409376057696988</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.731433555718761</v>
+        <v>0.1055193212668867</v>
       </c>
       <c r="C52">
-        <v>0.3957077699915358</v>
+        <v>-0.001083329158383988</v>
       </c>
       <c r="D52">
-        <v>0.01986024325824984</v>
+        <v>-0.01797844010429384</v>
       </c>
       <c r="E52">
-        <v>-0.008085227463618503</v>
+        <v>-0.01334725263840469</v>
       </c>
       <c r="F52">
-        <v>0.04555561108915162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>-0.005094706540846452</v>
+      </c>
+      <c r="G52">
+        <v>-0.0204493134047866</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.0304053278787296</v>
+        <v>0.127933880614037</v>
       </c>
       <c r="C53">
-        <v>0.1933589132725051</v>
+        <v>0.02296089183601926</v>
       </c>
       <c r="D53">
-        <v>-0.007010355888074438</v>
+        <v>0.321742099792828</v>
       </c>
       <c r="E53">
-        <v>-0.009149345362336317</v>
+        <v>0.03291735784833201</v>
       </c>
       <c r="F53">
-        <v>0.01190060085184312</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02633185789650722</v>
+      </c>
+      <c r="G53">
+        <v>0.1497613226365611</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02947210082065972</v>
+        <v>0.008896605427455745</v>
       </c>
       <c r="C54">
-        <v>0.4958770495013433</v>
+        <v>0.04151771208220081</v>
       </c>
       <c r="D54">
-        <v>-0.05422713402415086</v>
+        <v>-0.8597329385704217</v>
       </c>
       <c r="E54">
-        <v>-0.03677866761797864</v>
+        <v>-0.02759957952754652</v>
       </c>
       <c r="F54">
-        <v>0.1813586311828467</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.0125269219586091</v>
+      </c>
+      <c r="G54">
+        <v>-0.1051415154727278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.03194663854717709</v>
+        <v>-0.08513619209387981</v>
       </c>
       <c r="C55">
-        <v>0.62924984772603</v>
+        <v>0.01540043535669978</v>
       </c>
       <c r="D55">
-        <v>-0.02294428336634827</v>
+        <v>-0.4118272920120976</v>
       </c>
       <c r="E55">
-        <v>-0.03398012051742985</v>
+        <v>-0.04727828288015745</v>
       </c>
       <c r="F55">
-        <v>0.04857444365587539</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.009750967960937039</v>
+      </c>
+      <c r="G55">
+        <v>0.07564521494658481</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.02145338007360224</v>
+        <v>-0.03374575116926636</v>
       </c>
       <c r="C56">
-        <v>0.7152790847682977</v>
+        <v>-0.008278843956426897</v>
       </c>
       <c r="D56">
-        <v>-0.02090044659877685</v>
+        <v>0.02104354743188258</v>
       </c>
       <c r="E56">
-        <v>-0.04087639398013466</v>
+        <v>-0.004701284640684606</v>
       </c>
       <c r="F56">
-        <v>0.01116025246171341</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.02449881268331158</v>
+      </c>
+      <c r="G56">
+        <v>-0.01874513054565468</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.05805618014342451</v>
+        <v>-0.03207301223259052</v>
       </c>
       <c r="C57">
-        <v>0.4918887050711419</v>
+        <v>0.00375396675904941</v>
       </c>
       <c r="D57">
-        <v>-0.04328294750030382</v>
+        <v>0.03581169913272266</v>
       </c>
       <c r="E57">
-        <v>-0.0474271064573732</v>
+        <v>-0.03643895480663709</v>
       </c>
       <c r="F57">
-        <v>0.242851142709424</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01563546297863204</v>
+      </c>
+      <c r="G57">
+        <v>-0.02200205829654977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.006492241512963359</v>
+        <v>0.03856804191529632</v>
       </c>
       <c r="C58">
-        <v>-0.05787851253372221</v>
+        <v>-0.003849792610925786</v>
       </c>
       <c r="D58">
-        <v>-0.01700754269204559</v>
+        <v>-0.002490563740592535</v>
       </c>
       <c r="E58">
-        <v>-0.04348297682486703</v>
+        <v>0.007694708112569927</v>
       </c>
       <c r="F58">
-        <v>-0.01942583163183298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.002620581159801944</v>
+      </c>
+      <c r="G58">
+        <v>0.02050248772758506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.005605296700441021</v>
+        <v>-0.01279540482420204</v>
       </c>
       <c r="C59">
-        <v>0.9126968755040873</v>
+        <v>-0.0003140829997764022</v>
       </c>
       <c r="D59">
-        <v>-0.04527445739740549</v>
+        <v>-0.007468430326278643</v>
       </c>
       <c r="E59">
-        <v>-0.03833592443628451</v>
+        <v>-0.001390828682452363</v>
       </c>
       <c r="F59">
-        <v>0.1928422722352638</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.003229874733551347</v>
+      </c>
+      <c r="G59">
+        <v>0.02602072253009816</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.01720205511382101</v>
+        <v>-0.01041831270244258</v>
       </c>
       <c r="C60">
-        <v>-0.045012449980565</v>
+        <v>0.005897239604038454</v>
       </c>
       <c r="D60">
-        <v>0.01539134891227037</v>
+        <v>-0.008443450642868756</v>
       </c>
       <c r="E60">
-        <v>0.08438395902384839</v>
+        <v>0.009165816127781699</v>
       </c>
       <c r="F60">
-        <v>-0.01517961846739486</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.004455404736527914</v>
+      </c>
+      <c r="G60">
+        <v>-0.2562382431559156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.01117423256592465</v>
+        <v>0.02427948061305261</v>
       </c>
       <c r="C61">
-        <v>0.3272097486262606</v>
+        <v>0.005673338225847814</v>
       </c>
       <c r="D61">
-        <v>0.003017151294031871</v>
+        <v>0.001482584682880317</v>
       </c>
       <c r="E61">
-        <v>0.2953936029623148</v>
+        <v>0.006793910522770601</v>
       </c>
       <c r="F61">
-        <v>0.6348369394640409</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02773342561526894</v>
+      </c>
+      <c r="G61">
+        <v>0.0171521547962709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.05777371066296402</v>
+        <v>0.01953036080074941</v>
       </c>
       <c r="C62">
-        <v>-0.161858822466457</v>
+        <v>0.00170810743832687</v>
       </c>
       <c r="D62">
-        <v>0.04853016966545709</v>
+        <v>-0.001844462069354496</v>
       </c>
       <c r="E62">
-        <v>0.9073925444328401</v>
+        <v>0.003375888891917547</v>
       </c>
       <c r="F62">
-        <v>0.08068203743485214</v>
+        <v>0.002399372105337283</v>
+      </c>
+      <c r="G62">
+        <v>0.02190379582563932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>-0.0813607825782852</v>
+      </c>
+      <c r="C63">
+        <v>0.04924252365929997</v>
+      </c>
+      <c r="D63">
+        <v>-0.9131719728870643</v>
+      </c>
+      <c r="E63">
+        <v>-0.05153380279308728</v>
+      </c>
+      <c r="F63">
+        <v>0.02087143261864823</v>
+      </c>
+      <c r="G63">
+        <v>-0.02904088845518204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>-0.1182528934993907</v>
+      </c>
+      <c r="C64">
+        <v>-0.03955794172895391</v>
+      </c>
+      <c r="D64">
+        <v>0.01583772510468792</v>
+      </c>
+      <c r="E64">
+        <v>-0.005678096946823728</v>
+      </c>
+      <c r="F64">
+        <v>0.1062089984773862</v>
+      </c>
+      <c r="G64">
+        <v>0.06238516567245422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>-0.001114975514216338</v>
+      </c>
+      <c r="C65">
+        <v>-0.002806699719602632</v>
+      </c>
+      <c r="D65">
+        <v>-0.00375515355810101</v>
+      </c>
+      <c r="E65">
+        <v>0.001807370236116744</v>
+      </c>
+      <c r="F65">
+        <v>-0.002812637997957121</v>
+      </c>
+      <c r="G65">
+        <v>-0.006313286923402751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>0.1592226804830172</v>
+      </c>
+      <c r="C66">
+        <v>0.01352122779872271</v>
+      </c>
+      <c r="D66">
+        <v>0.1899393615265352</v>
+      </c>
+      <c r="E66">
+        <v>0.04238292327345344</v>
+      </c>
+      <c r="F66">
+        <v>0.04020400097128831</v>
+      </c>
+      <c r="G66">
+        <v>-0.01741533170060679</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>-0.209003913706284</v>
+      </c>
+      <c r="C67">
+        <v>-0.01370906841232118</v>
+      </c>
+      <c r="D67">
+        <v>-0.246581672454035</v>
+      </c>
+      <c r="E67">
+        <v>-0.03910696058160396</v>
+      </c>
+      <c r="F67">
+        <v>-0.05000477165807959</v>
+      </c>
+      <c r="G67">
+        <v>-0.1688618151555915</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>0.00462119352039827</v>
+      </c>
+      <c r="C68">
+        <v>0.2154638723824999</v>
+      </c>
+      <c r="D68">
+        <v>0.02517527114441093</v>
+      </c>
+      <c r="E68">
+        <v>-0.03309076656728115</v>
+      </c>
+      <c r="F68">
+        <v>-0.002850517736493879</v>
+      </c>
+      <c r="G68">
+        <v>0.0181122354669533</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>-0.07126428205412502</v>
+      </c>
+      <c r="C69">
+        <v>0.2263941452522108</v>
+      </c>
+      <c r="D69">
+        <v>0.01772719777511352</v>
+      </c>
+      <c r="E69">
+        <v>0.04512299816248009</v>
+      </c>
+      <c r="F69">
+        <v>0.01199647890029456</v>
+      </c>
+      <c r="G69">
+        <v>0.05616152589480483</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>0.06357216289608209</v>
+      </c>
+      <c r="C70">
+        <v>0.1032374219501508</v>
+      </c>
+      <c r="D70">
+        <v>0.004441288695675509</v>
+      </c>
+      <c r="E70">
+        <v>-0.01481822450295451</v>
+      </c>
+      <c r="F70">
+        <v>0.03688903747928745</v>
+      </c>
+      <c r="G70">
+        <v>0.02576455456912954</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>0.0306529778929025</v>
+      </c>
+      <c r="C71">
+        <v>-0.004354544251107224</v>
+      </c>
+      <c r="D71">
+        <v>-0.007431525441887944</v>
+      </c>
+      <c r="E71">
+        <v>-0.01919719666307142</v>
+      </c>
+      <c r="F71">
+        <v>-0.008804844002435249</v>
+      </c>
+      <c r="G71">
+        <v>0.02209726085479834</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>0.7174334106111384</v>
+      </c>
+      <c r="C72">
+        <v>0.1029561288370748</v>
+      </c>
+      <c r="D72">
+        <v>0.06016155723259723</v>
+      </c>
+      <c r="E72">
+        <v>-0.08460885464837775</v>
+      </c>
+      <c r="F72">
+        <v>-0.03839433243543704</v>
+      </c>
+      <c r="G72">
+        <v>-0.005946245189720948</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>0.08441941257608167</v>
+      </c>
+      <c r="C73">
+        <v>0.6491033260714975</v>
+      </c>
+      <c r="D73">
+        <v>0.03482904885612889</v>
+      </c>
+      <c r="E73">
+        <v>-0.01680966023887942</v>
+      </c>
+      <c r="F73">
+        <v>-0.0225462868350223</v>
+      </c>
+      <c r="G73">
+        <v>0.03530460839369235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>0.07067456318781842</v>
+      </c>
+      <c r="C74">
+        <v>-0.007419158295592494</v>
+      </c>
+      <c r="D74">
+        <v>0.004410519267754048</v>
+      </c>
+      <c r="E74">
+        <v>0.02658222345771227</v>
+      </c>
+      <c r="F74">
+        <v>-0.02142294236240561</v>
+      </c>
+      <c r="G74">
+        <v>0.08855410685429681</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>0.2622627439051489</v>
+      </c>
+      <c r="C75">
+        <v>-0.01329653957919293</v>
+      </c>
+      <c r="D75">
+        <v>-0.07250690006612927</v>
+      </c>
+      <c r="E75">
+        <v>0.03582914415336814</v>
+      </c>
+      <c r="F75">
+        <v>-0.001362164690349444</v>
+      </c>
+      <c r="G75">
+        <v>0.1036967404294162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>0.08789786336849593</v>
+      </c>
+      <c r="C76">
+        <v>0.03935535289308924</v>
+      </c>
+      <c r="D76">
+        <v>-0.5640495922188445</v>
+      </c>
+      <c r="E76">
+        <v>0.01156521027703625</v>
+      </c>
+      <c r="F76">
+        <v>0.0198392351414987</v>
+      </c>
+      <c r="G76">
+        <v>0.02649187648575172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>0.01011275465789351</v>
+      </c>
+      <c r="C77">
+        <v>-0.03116339853155166</v>
+      </c>
+      <c r="D77">
+        <v>0.02982480538508284</v>
+      </c>
+      <c r="E77">
+        <v>-0.03340419902561284</v>
+      </c>
+      <c r="F77">
+        <v>-0.001871839801890634</v>
+      </c>
+      <c r="G77">
+        <v>0.02447234938280136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78">
+        <v>0.1368215641573114</v>
+      </c>
+      <c r="C78">
+        <v>-0.01530103777234227</v>
+      </c>
+      <c r="D78">
+        <v>0.03000980904807954</v>
+      </c>
+      <c r="E78">
+        <v>0.0362368617266742</v>
+      </c>
+      <c r="F78">
+        <v>0.02688798384459408</v>
+      </c>
+      <c r="G78">
+        <v>0.07565405104389926</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79">
+        <v>0.01457432254858427</v>
+      </c>
+      <c r="C79">
+        <v>-0.008955070897760315</v>
+      </c>
+      <c r="D79">
+        <v>0.009975644223291644</v>
+      </c>
+      <c r="E79">
+        <v>-0.007306157322392307</v>
+      </c>
+      <c r="F79">
+        <v>-0.009115822726385793</v>
+      </c>
+      <c r="G79">
+        <v>-0.09403401564978886</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80">
+        <v>-0.01381670201267896</v>
+      </c>
+      <c r="C80">
+        <v>0.6564961425299904</v>
+      </c>
+      <c r="D80">
+        <v>0.04897012161154794</v>
+      </c>
+      <c r="E80">
+        <v>-0.1253956810951982</v>
+      </c>
+      <c r="F80">
+        <v>-0.01412702423171724</v>
+      </c>
+      <c r="G80">
+        <v>-0.01374133721368344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>0.09225418717607882</v>
+      </c>
+      <c r="C81">
+        <v>-0.02126156409382795</v>
+      </c>
+      <c r="D81">
+        <v>-0.04308189024145474</v>
+      </c>
+      <c r="E81">
+        <v>0.01992949957840702</v>
+      </c>
+      <c r="F81">
+        <v>-0.05789414978520503</v>
+      </c>
+      <c r="G81">
+        <v>0.1316879598623835</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>0.08441649452369941</v>
+      </c>
+      <c r="C82">
+        <v>-0.01694614024396334</v>
+      </c>
+      <c r="D82">
+        <v>-0.02948615974042497</v>
+      </c>
+      <c r="E82">
+        <v>-0.008028570006780745</v>
+      </c>
+      <c r="F82">
+        <v>-0.04433094586367504</v>
+      </c>
+      <c r="G82">
+        <v>0.1377898847097741</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>-0.01372173434955199</v>
+      </c>
+      <c r="C83">
+        <v>0.005152794941598202</v>
+      </c>
+      <c r="D83">
+        <v>0.02882300955043057</v>
+      </c>
+      <c r="E83">
+        <v>0.02866110530146742</v>
+      </c>
+      <c r="F83">
+        <v>0.005610278201634054</v>
+      </c>
+      <c r="G83">
+        <v>0.07541269925708668</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>0.03536865581700234</v>
+      </c>
+      <c r="C84">
+        <v>0.01383769015135305</v>
+      </c>
+      <c r="D84">
+        <v>0.006030729317097496</v>
+      </c>
+      <c r="E84">
+        <v>-0.001295685366583703</v>
+      </c>
+      <c r="F84">
+        <v>-0.002726301032047353</v>
+      </c>
+      <c r="G84">
+        <v>-0.01752291636307577</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>0.03348155434990231</v>
+      </c>
+      <c r="C85">
+        <v>-0.003346584962339257</v>
+      </c>
+      <c r="D85">
+        <v>-0.002068346516805649</v>
+      </c>
+      <c r="E85">
+        <v>0.004590391313381128</v>
+      </c>
+      <c r="F85">
+        <v>0.006463879018944824</v>
+      </c>
+      <c r="G85">
+        <v>-0.1139585461049536</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>0.02085343331938336</v>
+      </c>
+      <c r="C86">
+        <v>-0.01746134452747911</v>
+      </c>
+      <c r="D86">
+        <v>0.02068241594577347</v>
+      </c>
+      <c r="E86">
+        <v>0.04459827552223866</v>
+      </c>
+      <c r="F86">
+        <v>-0.01780774749307915</v>
+      </c>
+      <c r="G86">
+        <v>0.2425048966356055</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>-0.007460023753868323</v>
+      </c>
+      <c r="C87">
+        <v>0.008107244828195264</v>
+      </c>
+      <c r="D87">
+        <v>-0.0759564730062401</v>
+      </c>
+      <c r="E87">
+        <v>-0.0530170123203052</v>
+      </c>
+      <c r="F87">
+        <v>-0.05847816867970219</v>
+      </c>
+      <c r="G87">
+        <v>-0.1065404675658559</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>0.06392839152707105</v>
+      </c>
+      <c r="C88">
+        <v>0.00493723149431723</v>
+      </c>
+      <c r="D88">
+        <v>-0.008405311585217914</v>
+      </c>
+      <c r="E88">
+        <v>0.01047883357968792</v>
+      </c>
+      <c r="F88">
+        <v>-0.009479726167875426</v>
+      </c>
+      <c r="G88">
+        <v>-0.005902467103968069</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89">
+        <v>0.01847144488305846</v>
+      </c>
+      <c r="C89">
+        <v>0.2346491131462437</v>
+      </c>
+      <c r="D89">
+        <v>0.03134410875685368</v>
+      </c>
+      <c r="E89">
+        <v>-0.08522785459128449</v>
+      </c>
+      <c r="F89">
+        <v>0.009685357395358932</v>
+      </c>
+      <c r="G89">
+        <v>-0.01935304777969684</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90">
+        <v>0.2874573135909065</v>
+      </c>
+      <c r="C90">
+        <v>-0.008119461376869148</v>
+      </c>
+      <c r="D90">
+        <v>-0.05267416929525573</v>
+      </c>
+      <c r="E90">
+        <v>0.01980963200163777</v>
+      </c>
+      <c r="F90">
+        <v>-0.01697005356973269</v>
+      </c>
+      <c r="G90">
+        <v>0.1122972504281476</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91">
+        <v>-0.007317507341593595</v>
+      </c>
+      <c r="C91">
+        <v>-0.002137527716261188</v>
+      </c>
+      <c r="D91">
+        <v>0.001949301235287528</v>
+      </c>
+      <c r="E91">
+        <v>-0.01142556166962204</v>
+      </c>
+      <c r="F91">
+        <v>-0.01452987450655616</v>
+      </c>
+      <c r="G91">
+        <v>-0.01210033499767258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92">
+        <v>0.272451767169948</v>
+      </c>
+      <c r="C92">
+        <v>-0.04532295642860805</v>
+      </c>
+      <c r="D92">
+        <v>0.004888739551838474</v>
+      </c>
+      <c r="E92">
+        <v>0.0557024178467592</v>
+      </c>
+      <c r="F92">
+        <v>-0.007134703490465666</v>
+      </c>
+      <c r="G92">
+        <v>0.1275427771364399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>0.05138986184887872</v>
+      </c>
+      <c r="C93">
+        <v>-0.005600549324555684</v>
+      </c>
+      <c r="D93">
+        <v>-0.01038969845817331</v>
+      </c>
+      <c r="E93">
+        <v>-0.1254734978638329</v>
+      </c>
+      <c r="F93">
+        <v>0.04714375138325633</v>
+      </c>
+      <c r="G93">
+        <v>-0.08020796184395459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94">
+        <v>-0.02910030442390128</v>
+      </c>
+      <c r="C94">
+        <v>-0.003798250373583646</v>
+      </c>
+      <c r="D94">
+        <v>0.002755217948037699</v>
+      </c>
+      <c r="E94">
+        <v>0.0222366675758392</v>
+      </c>
+      <c r="F94">
+        <v>-0.003108306090047886</v>
+      </c>
+      <c r="G94">
+        <v>0.07517104235919435</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95">
+        <v>0.6621919026076688</v>
+      </c>
+      <c r="C95">
+        <v>-0.01364966051470047</v>
+      </c>
+      <c r="D95">
+        <v>0.03177853846404671</v>
+      </c>
+      <c r="E95">
+        <v>0.1110815417565971</v>
+      </c>
+      <c r="F95">
+        <v>0.3089175912350369</v>
+      </c>
+      <c r="G95">
+        <v>0.05588517601255662</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96">
+        <v>-0.01462735465179814</v>
+      </c>
+      <c r="C96">
+        <v>1.05975005607966E-05</v>
+      </c>
+      <c r="D96">
+        <v>0.008718292412739094</v>
+      </c>
+      <c r="E96">
+        <v>-0.01443394333254039</v>
+      </c>
+      <c r="F96">
+        <v>0.007649471085379501</v>
+      </c>
+      <c r="G96">
+        <v>-0.03383645546296384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97">
+        <v>-0.02265168395825306</v>
+      </c>
+      <c r="C97">
+        <v>-0.008897822971784276</v>
+      </c>
+      <c r="D97">
+        <v>0.02929409020331997</v>
+      </c>
+      <c r="E97">
+        <v>0.02543106119998017</v>
+      </c>
+      <c r="F97">
+        <v>0.04895342288842726</v>
+      </c>
+      <c r="G97">
+        <v>-0.1550509216792748</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98">
+        <v>-0.07259228343517329</v>
+      </c>
+      <c r="C98">
+        <v>-0.1900413600619302</v>
+      </c>
+      <c r="D98">
+        <v>0.02690642980748293</v>
+      </c>
+      <c r="E98">
+        <v>0.0974760009104759</v>
+      </c>
+      <c r="F98">
+        <v>-0.07705849522051751</v>
+      </c>
+      <c r="G98">
+        <v>0.1629083520060157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99">
+        <v>0.02888052799044214</v>
+      </c>
+      <c r="C99">
+        <v>0.8709826322409726</v>
+      </c>
+      <c r="D99">
+        <v>0.05278353100352756</v>
+      </c>
+      <c r="E99">
+        <v>-0.07978996060722536</v>
+      </c>
+      <c r="F99">
+        <v>-0.02511891603574114</v>
+      </c>
+      <c r="G99">
+        <v>-0.0427791634366968</v>
       </c>
     </row>
   </sheetData>
